--- a/Flight Payload/Perovskite Performance/P3_Assembled/X002_PreSatellite/curve_0.0_2_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P3_Assembled/X002_PreSatellite/curve_0.0_2_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P3_Assembled\X002_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E46DA-B667-4279-9AA6-B2E0650FC785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,27 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B8:B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45220.62759962431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>45220.627599624313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +512,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +536,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004820512820512821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>1.074974358974359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>1.5044410926763869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.8676923076923077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.315401374224904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.141363653942839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f>MAX(Data!$E$2:$E$257)</f>
+        <v>1.1413636539428389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>11413636.53942839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <f>(B12/((B8)*B9))</f>
+        <v>0.70574977108914561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.1967868368866964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>0.19678683688669638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,29 +626,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C2">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D2">
         <v>25.93863952890322</v>
       </c>
       <c r="E2">
-        <v>0.00725217757495284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7.25217757495284E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006427350427350428</v>
+        <v>6.4273504273504277E-3</v>
       </c>
       <c r="C3">
         <v>1.496564437740908</v>
@@ -617,15 +657,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E3">
-        <v>0.00961894407847148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9.6189440784714801E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008034188034188034</v>
+        <v>8.0341880341880337E-3</v>
       </c>
       <c r="C4">
         <v>1.496564437740908</v>
@@ -634,32 +674,32 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E4">
-        <v>0.01202368009808935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.2023680098089349E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01124786324786325</v>
+        <v>1.1247863247863249E-2</v>
       </c>
       <c r="C5">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D5">
         <v>25.93863952890322</v>
       </c>
       <c r="E5">
-        <v>0.01692174767488996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.6921747674889961E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01446153846153846</v>
+        <v>1.446153846153846E-2</v>
       </c>
       <c r="C6">
         <v>1.496564437740908</v>
@@ -668,49 +708,49 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E6">
-        <v>0.02164262417656083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.1642624176560831E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01767521367521368</v>
+        <v>1.7675213675213679E-2</v>
       </c>
       <c r="C7">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D7">
         <v>25.93863952890322</v>
       </c>
       <c r="E7">
-        <v>0.02659131777482708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.6591317774827081E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0224957264957265</v>
+        <v>2.2495726495726499E-2</v>
       </c>
       <c r="C8">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D8">
         <v>25.93863952890322</v>
       </c>
       <c r="E8">
-        <v>0.03384349534977991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.3843495349779908E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02892307692307692</v>
+        <v>2.8923076923076919E-2</v>
       </c>
       <c r="C9">
         <v>1.496564437740908</v>
@@ -719,49 +759,49 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E9">
-        <v>0.04328524835312166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>4.3285248353121662E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03535042735042735</v>
+        <v>3.5350427350427351E-2</v>
       </c>
       <c r="C10">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D10">
         <v>25.93863952890322</v>
       </c>
       <c r="E10">
-        <v>0.05318263554965415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>5.3182635549654148E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04499145299145299</v>
+        <v>4.499145299145299E-2</v>
       </c>
       <c r="C11">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D11">
         <v>25.93863952890322</v>
       </c>
       <c r="E11">
-        <v>0.06768699069955983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>6.7686990699559829E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05141880341880342</v>
+        <v>5.1418803418803422E-2</v>
       </c>
       <c r="C12">
         <v>1.496564437740908</v>
@@ -770,35 +810,35 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E12">
-        <v>0.07695155262777184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>7.6951552627771841E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.05945299145299145</v>
+        <v>5.9452991452991447E-2</v>
       </c>
       <c r="C13">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D13">
         <v>25.93863952890322</v>
       </c>
       <c r="E13">
-        <v>0.08944352342441836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>8.9443523424418359E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.06748717948717949</v>
+        <v>6.7487179487179486E-2</v>
       </c>
       <c r="C14">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D14">
         <v>25.93863952890322</v>
@@ -807,12 +847,12 @@
         <v>0.1015304860493398</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07391452991452992</v>
+        <v>7.3914529914529917E-2</v>
       </c>
       <c r="C15">
         <v>1.496564437740908</v>
@@ -824,15 +864,15 @@
         <v>0.110617856902422</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08194871794871794</v>
+        <v>8.1948717948717942E-2</v>
       </c>
       <c r="C16">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D16">
         <v>25.93863952890322</v>
@@ -841,24 +881,24 @@
         <v>0.1232870187741983</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08998290598290598</v>
+        <v>8.9982905982905981E-2</v>
       </c>
       <c r="C17">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D17">
         <v>25.93863952890322</v>
       </c>
       <c r="E17">
-        <v>0.1353739813991197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.13537398139911971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -872,10 +912,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E18">
-        <v>0.1563078412751615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.15630784127516151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -892,12 +932,12 @@
         <v>0.1755457294321045</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1301538461538461</v>
+        <v>0.13015384615384609</v>
       </c>
       <c r="C20">
         <v>1.496564437740908</v>
@@ -906,10 +946,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E20">
-        <v>0.1947836175890474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.19478361758904739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -923,15 +963,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E21">
-        <v>0.2116167697263726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.21161676972637261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1526495726495727</v>
+        <v>0.15264957264957271</v>
       </c>
       <c r="C22">
         <v>1.496564437740908</v>
@@ -940,10 +980,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E22">
-        <v>0.2284499218636976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.22844992186369761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -960,12 +1000,12 @@
         <v>0.2428783379814049</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.171931623931624</v>
+        <v>0.17193162393162401</v>
       </c>
       <c r="C24">
         <v>1.496564437740908</v>
@@ -974,10 +1014,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E24">
-        <v>0.2573067540991121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.25730675409911208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -991,15 +1031,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E25">
-        <v>0.2717351702168193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.27173517021681931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1912136752136752</v>
+        <v>0.19121367521367519</v>
       </c>
       <c r="C26">
         <v>1.496564437740908</v>
@@ -1008,10 +1048,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E26">
-        <v>0.2861635863345265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.28616358633452649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1028,7 +1068,7 @@
         <v>0.3029967384718516</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1042,15 +1082,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E28">
-        <v>0.3198298906091767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.31982989060917671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2217435897435897</v>
+        <v>0.22174358974358971</v>
       </c>
       <c r="C29">
         <v>1.496564437740908</v>
@@ -1059,15 +1099,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E29">
-        <v>0.3318535707072661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.33185357070726612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2313846153846154</v>
+        <v>0.23138461538461541</v>
       </c>
       <c r="C30">
         <v>1.496564437740908</v>
@@ -1076,15 +1116,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E30">
-        <v>0.3462819868249732</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.34628198682497319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2394188034188034</v>
+        <v>0.23941880341880339</v>
       </c>
       <c r="C31">
         <v>1.496564437740908</v>
@@ -1093,15 +1133,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E31">
-        <v>0.3583056669230626</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.35830566692306259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.249059829059829</v>
+        <v>0.24905982905982901</v>
       </c>
       <c r="C32">
         <v>1.496564437740908</v>
@@ -1110,15 +1150,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E32">
-        <v>0.3727340830407698</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.37273408304076983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2570940170940171</v>
+        <v>0.25709401709401708</v>
       </c>
       <c r="C33">
         <v>1.496564437740908</v>
@@ -1127,44 +1167,44 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E33">
-        <v>0.3847577631388592</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.38475776313885918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2763760683760684</v>
+        <v>0.27637606837606837</v>
       </c>
       <c r="C34">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D34">
         <v>25.66703073802465</v>
       </c>
       <c r="E34">
-        <v>0.4114376764512511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.41143767645125112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.2956581196581197</v>
+        <v>0.29565811965811972</v>
       </c>
       <c r="C35">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D35">
         <v>25.66703073802465</v>
       </c>
       <c r="E35">
-        <v>0.4401426306222687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.44014263062226872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1172,50 +1212,50 @@
         <v>0.3133333333333333</v>
       </c>
       <c r="C36">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D36">
         <v>25.66703073802465</v>
       </c>
       <c r="E36">
-        <v>0.4664555052790347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.46645550527903468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.3277948717948718</v>
+        <v>0.32779487179487182</v>
       </c>
       <c r="C37">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D37">
         <v>25.66703073802465</v>
       </c>
       <c r="E37">
-        <v>0.4879842209072978</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.48798422090729782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3422564102564102</v>
+        <v>0.34225641025641018</v>
       </c>
       <c r="C38">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D38">
         <v>25.53122634258537</v>
       </c>
       <c r="E38">
-        <v>0.5068171008925156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.50681710089251564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1223,24 +1263,24 @@
         <v>0.3551111111111111</v>
       </c>
       <c r="C39">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D39">
         <v>25.53122634258537</v>
       </c>
       <c r="E39">
-        <v>0.525852484963596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.52585248496359605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3663589743589744</v>
+        <v>0.36635897435897441</v>
       </c>
       <c r="C40">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D40">
         <v>25.53122634258537</v>
@@ -1249,151 +1289,151 @@
         <v>0.5425084460257914</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.3776068376068376</v>
+        <v>0.37760683760683761</v>
       </c>
       <c r="C41">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D41">
         <v>25.53122634258537</v>
       </c>
       <c r="E41">
-        <v>0.5591644070879868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.55916440708798676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.3904615384615385</v>
+        <v>0.39046153846153853</v>
       </c>
       <c r="C42">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D42">
         <v>25.53122634258537</v>
       </c>
       <c r="E42">
-        <v>0.5781997911590672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.57819979115906717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4033162393162393</v>
+        <v>0.40331623931623928</v>
       </c>
       <c r="C43">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D43">
         <v>25.39542194714608</v>
       </c>
       <c r="E43">
-        <v>0.5940583923831786</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.59405839238317859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4129572649572649</v>
+        <v>0.41295726495726492</v>
       </c>
       <c r="C44">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D44">
         <v>25.39542194714608</v>
       </c>
       <c r="E44">
-        <v>0.6082589914042905</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.60825899140429052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4225982905982906</v>
+        <v>0.42259829059829063</v>
       </c>
       <c r="C45">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D45">
         <v>25.39542194714608</v>
       </c>
       <c r="E45">
-        <v>0.6224595904254023</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.62245959042540233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4338461538461538</v>
+        <v>0.43384615384615383</v>
       </c>
       <c r="C46">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D46">
         <v>25.39542194714608</v>
       </c>
       <c r="E46">
-        <v>0.6390269559500328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.63902695595003278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4434871794871795</v>
+        <v>0.44348717948717947</v>
       </c>
       <c r="C47">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D47">
         <v>25.39542194714608</v>
       </c>
       <c r="E47">
-        <v>0.6532275549711447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.65322755497114471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4531282051282051</v>
+        <v>0.45312820512820512</v>
       </c>
       <c r="C48">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D48">
         <v>25.39542194714608</v>
       </c>
       <c r="E48">
-        <v>0.6674281539922565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.66742815399225652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4611623931623932</v>
+        <v>0.46116239316239321</v>
       </c>
       <c r="C49">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D49">
         <v>25.39542194714608</v>
@@ -1402,12 +1442,12 @@
         <v>0.6792619865098497</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4756239316239316</v>
+        <v>0.47562393162393157</v>
       </c>
       <c r="C50">
         <v>1.465057817998995</v>
@@ -1416,15 +1456,15 @@
         <v>25.2596175517068</v>
       </c>
       <c r="E50">
-        <v>0.6968165594530603</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.69681655945306031</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4884786324786325</v>
+        <v>0.48847863247863249</v>
       </c>
       <c r="C51">
         <v>1.465057817998995</v>
@@ -1433,61 +1473,61 @@
         <v>25.2596175517068</v>
       </c>
       <c r="E51">
-        <v>0.7156494394382781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.71564943943827808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4997264957264957</v>
+        <v>0.49972649572649569</v>
       </c>
       <c r="C52">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D52">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E52">
-        <v>0.7281920362563902</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.72819203625639017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5125811965811966</v>
+        <v>0.51258119658119661</v>
       </c>
       <c r="C53">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D53">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E53">
-        <v>0.7469236641986767</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.74692366419867673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5222222222222223</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C54">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D54">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E54">
-        <v>0.7609723851553917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.76097238515539167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1495,21 +1535,21 @@
         <v>0.5318632478632479</v>
       </c>
       <c r="C55">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D55">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E55">
-        <v>0.7750211061121066</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.77502110611210662</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5415042735042735</v>
+        <v>0.54150427350427355</v>
       </c>
       <c r="C56">
         <v>1.449304508128038</v>
@@ -1518,15 +1558,15 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E56">
-        <v>0.7848045847603417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.78480458476034165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5511452991452992</v>
+        <v>0.55114529914529919</v>
       </c>
       <c r="C57">
         <v>1.449304508128038</v>
@@ -1538,12 +1578,12 @@
         <v>0.7987773666848581</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5623931623931624</v>
+        <v>0.56239316239316239</v>
       </c>
       <c r="C58">
         <v>1.449304508128038</v>
@@ -1552,15 +1592,15 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E58">
-        <v>0.8150789455967939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.81507894559679395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.572034188034188</v>
+        <v>0.57203418803418804</v>
       </c>
       <c r="C59">
         <v>1.449304508128038</v>
@@ -1572,12 +1612,12 @@
         <v>0.8290517275213104</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5816752136752137</v>
+        <v>0.58167521367521369</v>
       </c>
       <c r="C60">
         <v>1.449304508128038</v>
@@ -1586,35 +1626,35 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E60">
-        <v>0.8430245094458269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.84302450944582685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5897094017094018</v>
+        <v>0.58970940170940178</v>
       </c>
       <c r="C61">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D61">
         <v>24.85220436538895</v>
       </c>
       <c r="E61">
-        <v>0.8500235569134514</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.85002355691345144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5993504273504274</v>
+        <v>0.59935042735042743</v>
       </c>
       <c r="C62">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D62">
         <v>24.85220436538895</v>
@@ -1623,32 +1663,32 @@
         <v>0.8639203998057694</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6073846153846154</v>
+        <v>0.60738461538461541</v>
       </c>
       <c r="C63">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D63">
         <v>24.85220436538895</v>
       </c>
       <c r="E63">
-        <v>0.8755011022160344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.87550110221603439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6138119658119658</v>
+        <v>0.61381196581196584</v>
       </c>
       <c r="C64">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D64">
         <v>24.85220436538895</v>
@@ -1657,97 +1697,97 @@
         <v>0.8847656641442464</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6218461538461538</v>
+        <v>0.62184615384615383</v>
       </c>
       <c r="C65">
         <v>1.433551198257081</v>
       </c>
       <c r="D65">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E65">
-        <v>0.8914482989777107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.89144829897771072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6347008547008547</v>
+        <v>0.63470085470085469</v>
       </c>
       <c r="C66">
         <v>1.433551198257081</v>
       </c>
       <c r="D66">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E66">
-        <v>0.9098761707912034</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.90987617079120342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6459487179487179</v>
+        <v>0.64594871794871789</v>
       </c>
       <c r="C67">
         <v>1.433551198257081</v>
       </c>
       <c r="D67">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E67">
-        <v>0.9260005586280095</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.92600055862800945</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6571965811965813</v>
+        <v>0.65719658119658131</v>
       </c>
       <c r="C68">
         <v>1.425674543321602</v>
       </c>
       <c r="D68">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E68">
-        <v>0.9369484357699543</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.93694843576995435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6684444444444445</v>
+        <v>0.66844444444444451</v>
       </c>
       <c r="C69">
         <v>1.425674543321602</v>
       </c>
       <c r="D69">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E69">
-        <v>0.9529842280691956</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.95298422806919558</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6780854700854702</v>
+        <v>0.67808547008547015</v>
       </c>
       <c r="C70">
         <v>1.417797888386124</v>
@@ -1759,12 +1799,12 @@
         <v>0.9613881476324917</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6861196581196581</v>
+        <v>0.68611965811965814</v>
       </c>
       <c r="C71">
         <v>1.417797888386124</v>
@@ -1773,231 +1813,231 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E71">
-        <v>0.9727790024622605</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.97277900246226046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6957606837606838</v>
+        <v>0.69576068376068378</v>
       </c>
       <c r="C72">
         <v>1.409921233450645</v>
       </c>
       <c r="D72">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E72">
-        <v>0.9809677614343276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.98096776143432762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7037948717948718</v>
+        <v>0.70379487179487177</v>
       </c>
       <c r="C73">
         <v>1.409921233450645</v>
       </c>
       <c r="D73">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E73">
-        <v>0.9922953337372643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.99229533373726431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7134358974358974</v>
+        <v>0.71343589743589741</v>
       </c>
       <c r="C74">
         <v>1.409921233450645</v>
       </c>
       <c r="D74">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E74">
         <v>1.005888420500789</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7230769230769231</v>
+        <v>0.72307692307692306</v>
       </c>
       <c r="C75">
         <v>1.409921233450645</v>
       </c>
       <c r="D75">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E75">
-        <v>1.019481507264313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>1.0194815072643131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7311111111111112</v>
+        <v>0.73111111111111116</v>
       </c>
       <c r="C76">
         <v>1.402044578515167</v>
       </c>
       <c r="D76">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E76">
-        <v>1.025050369625533</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>1.0250503696255331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7391452991452991</v>
+        <v>0.73914529914529914</v>
       </c>
       <c r="C77">
         <v>1.402044578515167</v>
       </c>
       <c r="D77">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E77">
-        <v>1.036314659401638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>1.0363146594016379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7471794871794871</v>
+        <v>0.74717948717948712</v>
       </c>
       <c r="C78">
         <v>1.394167923579688</v>
       </c>
       <c r="D78">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E78">
-        <v>1.041693674182362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1.0416936741823619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7536068376068376</v>
+        <v>0.75360683760683755</v>
       </c>
       <c r="C79">
         <v>1.394167923579688</v>
       </c>
       <c r="D79">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E79">
-        <v>1.05065447998178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>1.0506544799817801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7616410256410256</v>
+        <v>0.76164102564102565</v>
       </c>
       <c r="C80">
         <v>1.394167923579688</v>
       </c>
       <c r="D80">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E80">
-        <v>1.061855487231053</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>1.0618554872310531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7680683760683761</v>
+        <v>0.76806837606837608</v>
       </c>
       <c r="C81">
-        <v>1.38629126864421</v>
+        <v>1.3862912686442099</v>
       </c>
       <c r="D81">
-        <v>23.90157359731396</v>
+        <v>23.901573597313959</v>
       </c>
       <c r="E81">
         <v>1.064766483465327</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7777094017094017</v>
+        <v>0.77770940170940173</v>
       </c>
       <c r="C82">
         <v>1.378414613708731</v>
       </c>
       <c r="D82">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E82">
-        <v>1.072006004534913</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>1.0720060045349129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7873504273504273</v>
+        <v>0.78735042735042726</v>
       </c>
       <c r="C83">
         <v>1.378414613708731</v>
       </c>
       <c r="D83">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E83">
-        <v>1.085295335169644</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1.0852953351696439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7953846153846154</v>
+        <v>0.79538461538461536</v>
       </c>
       <c r="C84">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D84">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E84">
         <v>1.090104807208879</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2008,200 +2048,200 @@
         <v>1.362661303837774</v>
       </c>
       <c r="D85">
-        <v>23.49416041099611</v>
+        <v>23.494160410996109</v>
       </c>
       <c r="E85">
         <v>1.09697728962284</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.8114529914529914</v>
+        <v>0.81145299145299143</v>
       </c>
       <c r="C86">
         <v>1.362661303837774</v>
       </c>
       <c r="D86">
-        <v>23.49416041099611</v>
+        <v>23.494160410996109</v>
       </c>
       <c r="E86">
         <v>1.105735591336396</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8194871794871795</v>
+        <v>0.81948717948717953</v>
       </c>
       <c r="C87">
-        <v>1.354784648902296</v>
+        <v>1.3547846489022961</v>
       </c>
       <c r="D87">
-        <v>23.35835601555682</v>
+        <v>23.358356015556819</v>
       </c>
       <c r="E87">
-        <v>1.110228650741471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1.1102286507414709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8259145299145298</v>
+        <v>0.82591452991452985</v>
       </c>
       <c r="C88">
         <v>1.346907993966818</v>
       </c>
       <c r="D88">
-        <v>23.22255162011754</v>
+        <v>23.222551620117539</v>
       </c>
       <c r="E88">
-        <v>1.112430882675226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>1.1124308826752261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8323418803418804</v>
+        <v>0.83234188034188039</v>
       </c>
       <c r="C89">
         <v>1.346907993966818</v>
       </c>
       <c r="D89">
-        <v>23.22255162011754</v>
+        <v>23.222551620117539</v>
       </c>
       <c r="E89">
-        <v>1.121087932345851</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>1.1210879323458509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8403760683760684</v>
+        <v>0.84037606837606837</v>
       </c>
       <c r="C90">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D90">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E90">
         <v>1.125289892127499</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8451965811965811</v>
+        <v>0.84519658119658114</v>
       </c>
       <c r="C91">
         <v>1.331154684095861</v>
       </c>
       <c r="D91">
-        <v>22.95094282923898</v>
+        <v>22.950942829238979</v>
       </c>
       <c r="E91">
-        <v>1.125087388041636</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>1.1250873880416361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8516239316239317</v>
+        <v>0.85162393162393168</v>
       </c>
       <c r="C92">
         <v>1.331154684095861</v>
       </c>
       <c r="D92">
-        <v>22.95094282923898</v>
+        <v>22.950942829238979</v>
       </c>
       <c r="E92">
-        <v>1.13364318566933</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>1.1336431856693301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8580512820512821</v>
+        <v>0.85805128205128212</v>
       </c>
       <c r="C93">
-        <v>1.323278029160382</v>
+        <v>1.3232780291603821</v>
       </c>
       <c r="D93">
-        <v>22.81513843379969</v>
+        <v>22.815138433799689</v>
       </c>
       <c r="E93">
-        <v>1.13544040943136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>1.1354404094313599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8628717948717949</v>
+        <v>0.86287179487179488</v>
       </c>
       <c r="C94">
         <v>1.315401374224904</v>
       </c>
       <c r="D94">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E94">
         <v>1.135022744754268</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.8676923076923077</v>
+        <v>0.86769230769230765</v>
       </c>
       <c r="C95">
         <v>1.315401374224904</v>
       </c>
       <c r="D95">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E95">
-        <v>1.141363653942839</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>1.1413636539428389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8725128205128205</v>
+        <v>0.87251282051282053</v>
       </c>
       <c r="C96">
         <v>1.307524719289425</v>
       </c>
       <c r="D96">
-        <v>22.54352964292112</v>
+        <v>22.543529642921118</v>
       </c>
       <c r="E96">
-        <v>1.14083208071745</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>1.1408320807174499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2212,426 +2252,426 @@
         <v>1.299648064353947</v>
       </c>
       <c r="D97">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E97">
-        <v>1.140224568459863</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>1.1402245684598631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.8837606837606837</v>
+        <v>0.88376068376068373</v>
       </c>
       <c r="C98">
         <v>1.28389475448299</v>
       </c>
       <c r="D98">
-        <v>22.13611645660327</v>
+        <v>22.136116456603268</v>
       </c>
       <c r="E98">
         <v>1.134655706098642</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.8901880341880343</v>
+        <v>0.89018803418803427</v>
       </c>
       <c r="C99">
-        <v>1.268141444612033</v>
+        <v>1.2681414446120329</v>
       </c>
       <c r="D99">
-        <v>21.86450766572471</v>
+        <v>21.864507665724709</v>
       </c>
       <c r="E99">
         <v>1.12888433965156</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8982222222222223</v>
+        <v>0.89822222222222226</v>
       </c>
       <c r="C100">
         <v>1.260264789676554</v>
       </c>
       <c r="D100">
-        <v>21.72870327028541</v>
+        <v>21.728703270285411</v>
       </c>
       <c r="E100">
-        <v>1.131997839971696</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>1.1319978399716959</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.903042735042735</v>
+        <v>0.90304273504273502</v>
       </c>
       <c r="C101">
-        <v>1.244511479805598</v>
+        <v>1.2445114798055981</v>
       </c>
       <c r="D101">
-        <v>21.45709447940686</v>
+        <v>21.457094479406859</v>
       </c>
       <c r="E101">
-        <v>1.123847050515728</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>1.1238470505157281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9078632478632478</v>
+        <v>0.90786324786324779</v>
       </c>
       <c r="C102">
-        <v>1.236634824870119</v>
+        <v>1.2366348248701191</v>
       </c>
       <c r="D102">
-        <v>21.32129008396756</v>
+        <v>21.321290083967561</v>
       </c>
       <c r="E102">
         <v>1.122695308527385</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9126837606837607</v>
+        <v>0.91268376068376067</v>
       </c>
       <c r="C103">
         <v>1.228758169934641</v>
       </c>
       <c r="D103">
-        <v>21.18548568852828</v>
+        <v>21.185485688528281</v>
       </c>
       <c r="E103">
-        <v>1.121467627506843</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>1.1214676275068429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9175042735042734</v>
+        <v>0.91750427350427344</v>
       </c>
       <c r="C104">
-        <v>1.220881514999162</v>
+        <v>1.2208815149991621</v>
       </c>
       <c r="D104">
-        <v>21.049681293089</v>
+        <v>21.049681293089002</v>
       </c>
       <c r="E104">
-        <v>1.120164007454103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>1.1201640074541031</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9207179487179488</v>
+        <v>0.92071794871794876</v>
       </c>
       <c r="C105">
-        <v>1.205128205128205</v>
+        <v>1.2051282051282051</v>
       </c>
       <c r="D105">
-        <v>20.77807250221043</v>
+        <v>20.778072502210431</v>
       </c>
       <c r="E105">
-        <v>1.109583168967785</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>1.1095831689677851</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.923931623931624</v>
+        <v>0.92393162393162398</v>
       </c>
       <c r="C106">
         <v>1.197251550192727</v>
       </c>
       <c r="D106">
-        <v>20.64226810677115</v>
+        <v>20.642268106771152</v>
       </c>
       <c r="E106">
-        <v>1.10617856902422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>1.1061785690242201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9287521367521369</v>
+        <v>0.92875213675213686</v>
       </c>
       <c r="C107">
         <v>1.189374895257248</v>
       </c>
       <c r="D107">
-        <v>20.50646371133186</v>
+        <v>20.506463711331861</v>
       </c>
       <c r="E107">
-        <v>1.104634475369518</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>1.1046344753695181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.931965811965812</v>
+        <v>0.93196581196581196</v>
       </c>
       <c r="C108">
         <v>1.18149824032177</v>
       </c>
       <c r="D108">
-        <v>20.37065931589258</v>
+        <v>20.370659315892581</v>
       </c>
       <c r="E108">
         <v>1.101115966877656</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9351794871794872</v>
+        <v>0.93517948717948718</v>
       </c>
       <c r="C109">
         <v>1.173621585386291</v>
       </c>
       <c r="D109">
-        <v>20.2348549204533</v>
+        <v>20.234854920453301</v>
       </c>
       <c r="E109">
         <v>1.097546832364328</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.9383931623931625</v>
+        <v>0.93839316239316251</v>
       </c>
       <c r="C110">
         <v>1.165744930450813</v>
       </c>
       <c r="D110">
-        <v>20.09905052501401</v>
+        <v>20.099050525014011</v>
       </c>
       <c r="E110">
         <v>1.093927071829536</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9400000000000001</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="C111">
         <v>1.165744930450813</v>
       </c>
       <c r="D111">
-        <v>20.09905052501401</v>
+        <v>20.099050525014011</v>
       </c>
       <c r="E111">
-        <v>1.095800234623764</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>1.0958002346237641</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9432136752136753</v>
+        <v>0.94321367521367527</v>
       </c>
       <c r="C112">
         <v>1.157868275515334</v>
       </c>
       <c r="D112">
-        <v>19.96324612957473</v>
+        <v>19.963246129574731</v>
       </c>
       <c r="E112">
         <v>1.092117191562139</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9464273504273504</v>
+        <v>0.94642735042735038</v>
       </c>
       <c r="C113">
-        <v>1.149991620579856</v>
+        <v>1.1499916205798559</v>
       </c>
       <c r="D113">
-        <v>19.82744173413545</v>
+        <v>19.827441734135451</v>
       </c>
       <c r="E113">
-        <v>1.088383522479048</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>1.0883835224790479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.948034188034188</v>
+        <v>0.94803418803418804</v>
       </c>
       <c r="C114">
         <v>1.142114965644377</v>
       </c>
       <c r="D114">
-        <v>19.69163733869616</v>
+        <v>19.691637338696161</v>
       </c>
       <c r="E114">
         <v>1.082764034096362</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.9512478632478633</v>
+        <v>0.95124786324786326</v>
       </c>
       <c r="C115">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D115">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E115">
-        <v>1.063956467121877</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>1.0639564671218771</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.9544615384615385</v>
+        <v>0.95446153846153847</v>
       </c>
       <c r="C116">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D116">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E116">
         <v>1.067550914645937</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.956068376068376</v>
+        <v>0.95606837606837602</v>
       </c>
       <c r="C117">
-        <v>1.110608345902463</v>
+        <v>1.1106083459024629</v>
       </c>
       <c r="D117">
         <v>19.14841975693902</v>
       </c>
       <c r="E117">
-        <v>1.061817517714953</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>1.0618175177149529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9576752136752137</v>
+        <v>0.95767521367521369</v>
       </c>
       <c r="C118">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D118">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E118">
-        <v>1.056058807773237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>1.0560588077732369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.9592820512820514</v>
+        <v>0.95928205128205135</v>
       </c>
       <c r="C119">
         <v>1.094855036031507</v>
       </c>
       <c r="D119">
-        <v>18.87681096606046</v>
+        <v>18.876810966060461</v>
       </c>
       <c r="E119">
-        <v>1.050274784820788</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>1.0502747848207881</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C120">
-        <v>1.086978381096028</v>
+        <v>1.0869783810960281</v>
       </c>
       <c r="D120">
         <v>18.74100657062117</v>
       </c>
       <c r="E120">
-        <v>1.04621204659817</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>1.0462120465981699</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C121">
         <v>1.07910172616055</v>
       </c>
       <c r="D121">
-        <v>18.60520217518189</v>
+        <v>18.605202175181891</v>
       </c>
       <c r="E121">
         <v>1.040364741118889</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C122">
         <v>1.071225071225071</v>
@@ -2643,12 +2683,12 @@
         <v>1.034492122628875</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C123">
         <v>1.071225071225071</v>
@@ -2657,10 +2697,10 @@
         <v>18.4693977797426</v>
       </c>
       <c r="E123">
-        <v>1.036213407358706</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>1.0362134073587059</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2674,32 +2714,32 @@
         <v>18.33359338430332</v>
       </c>
       <c r="E124">
-        <v>1.030302819352593</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>1.0303028193525929</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9705299145299146</v>
+        <v>0.97052991452991455</v>
       </c>
       <c r="C125">
         <v>1.055471761354114</v>
       </c>
       <c r="D125">
-        <v>18.19778898886404</v>
+        <v>18.197788988864041</v>
       </c>
       <c r="E125">
-        <v>1.024366918335747</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>1.0243669183357469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C126">
         <v>1.047595106418636</v>
@@ -2711,12 +2751,12 @@
         <v>1.018405704308168</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C127">
         <v>1.039718451483157</v>
@@ -2725,15 +2765,15 @@
         <v>17.92618019798547</v>
       </c>
       <c r="E127">
-        <v>1.012419177269856</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>1.0124191772698561</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C128">
         <v>1.039718451483157</v>
@@ -2745,15 +2785,15 @@
         <v>1.014089835978222</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.976957264957265</v>
+        <v>0.97695726495726498</v>
       </c>
       <c r="C129">
-        <v>1.031841796547679</v>
+        <v>1.0318417965476789</v>
       </c>
       <c r="D129">
         <v>17.79037580254619</v>
@@ -2762,29 +2802,29 @@
         <v>1.008065339423811</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C130">
-        <v>0.8664320429026311</v>
+        <v>0.86643204290263109</v>
       </c>
       <c r="D130">
-        <v>14.93848349832123</v>
+        <v>14.938483498321229</v>
       </c>
       <c r="E130">
-        <v>0.8548203724473206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>0.85482037244732056</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.9978461538461538</v>
+        <v>0.99784615384615383</v>
       </c>
       <c r="C131">
         <v>0.7246522540640189</v>
@@ -2796,24 +2836,24 @@
         <v>0.7230914645937272</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.007487179487179</v>
+        <v>1.0074871794871789</v>
       </c>
       <c r="C132">
-        <v>0.6065024300318418</v>
+        <v>0.60650243003184179</v>
       </c>
       <c r="D132">
-        <v>10.45693844882486</v>
+        <v>10.456938448824859</v>
       </c>
       <c r="E132">
-        <v>0.6110434225849006</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.61104342258490063</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2821,50 +2861,50 @@
         <v>1.01391452991453</v>
       </c>
       <c r="C133">
-        <v>0.5119825708061002</v>
+        <v>0.51198257080610021</v>
       </c>
       <c r="D133">
-        <v>8.827285703553452</v>
+        <v>8.8272857035534518</v>
       </c>
       <c r="E133">
-        <v>0.5191065676032997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.51910656760329965</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.021948717948718</v>
+        <v>1.0219487179487181</v>
       </c>
       <c r="C134">
-        <v>0.4332160214513155</v>
+        <v>0.43321602145131549</v>
       </c>
       <c r="D134">
-        <v>7.469241749160613</v>
+        <v>7.4692417491606129</v>
       </c>
       <c r="E134">
-        <v>0.4427245577170162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.44272455771701619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.026769230769231</v>
+        <v>1.0267692307692311</v>
       </c>
       <c r="C135">
-        <v>0.3702027819674878</v>
+        <v>0.37020278196748779</v>
       </c>
       <c r="D135">
-        <v>6.382806585646342</v>
+        <v>6.3828065856463416</v>
       </c>
       <c r="E135">
         <v>0.3801128256693867</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2872,16 +2912,16 @@
         <v>1.031589743589743</v>
       </c>
       <c r="C136">
-        <v>0.3071895424836601</v>
+        <v>0.30718954248366009</v>
       </c>
       <c r="D136">
-        <v>5.296371422132071</v>
+        <v>5.2963714221320712</v>
       </c>
       <c r="E136">
-        <v>0.3168935813641696</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>0.31689358136416962</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2889,16 +2929,16 @@
         <v>1.036410256410256</v>
       </c>
       <c r="C137">
-        <v>0.2599296128707894</v>
+        <v>0.25992961287078942</v>
       </c>
       <c r="D137">
-        <v>4.481545049496368</v>
+        <v>4.4815450494963676</v>
       </c>
       <c r="E137">
-        <v>0.2693937167240335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>0.26939371672403351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2909,149 +2949,149 @@
         <v>0.220546338193397</v>
       </c>
       <c r="D138">
-        <v>3.802523072299948</v>
+        <v>3.8025230722999481</v>
       </c>
       <c r="E138">
-        <v>0.2292852512178807</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.22928525121788071</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.042837606837607</v>
+        <v>1.0428376068376071</v>
       </c>
       <c r="C139">
-        <v>0.1890397184514832</v>
+        <v>0.18903971845148321</v>
       </c>
       <c r="D139">
-        <v>3.259305490542813</v>
+        <v>3.2593054905428129</v>
       </c>
       <c r="E139">
-        <v>0.1971377275871997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>0.19713772758719969</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.046051282051282</v>
+        <v>1.0460512820512819</v>
       </c>
       <c r="C140">
         <v>0.1575330987095693</v>
       </c>
       <c r="D140">
-        <v>2.716087908785677</v>
+        <v>2.7160879087856769</v>
       </c>
       <c r="E140">
-        <v>0.1647876998706561</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>0.16478769987065611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.049264957264957</v>
+        <v>1.0492649572649571</v>
       </c>
       <c r="C141">
-        <v>0.1339031339031339</v>
+        <v>0.13390313390313391</v>
       </c>
       <c r="D141">
         <v>2.308674722467825</v>
       </c>
       <c r="E141">
-        <v>0.1404998660725156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>0.14049986607251561</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.052478632478632</v>
+        <v>1.0524786324786319</v>
       </c>
       <c r="C142">
         <v>0.1102731690966985</v>
       </c>
       <c r="D142">
-        <v>1.901261536149974</v>
+        <v>1.9012615361499741</v>
       </c>
       <c r="E142">
         <v>0.1160601542099782</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.052478632478632</v>
+        <v>1.0524786324786319</v>
       </c>
       <c r="C143">
-        <v>0.09451985922574158</v>
+        <v>9.4519859225741576E-2</v>
       </c>
       <c r="D143">
         <v>1.629652745271406</v>
       </c>
       <c r="E143">
-        <v>0.09948013217998133</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>9.9480132179981334E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.055692307692308</v>
+        <v>1.0556923076923079</v>
       </c>
       <c r="C144">
-        <v>0.07876654935478464</v>
+        <v>7.8766549354784637E-2</v>
       </c>
       <c r="D144">
         <v>1.358043954392838</v>
       </c>
       <c r="E144">
-        <v>0.08315324025731265</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>8.3153240257312647E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.057299145299145</v>
+        <v>1.0572991452991449</v>
       </c>
       <c r="C145">
-        <v>0.07088989441930618</v>
+        <v>7.0889894419306182E-2</v>
       </c>
       <c r="D145">
-        <v>1.222239558953555</v>
+        <v>1.2222395589535551</v>
       </c>
       <c r="E145">
-        <v>0.07495182477987908</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>7.4951824779879078E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.057299145299145</v>
+        <v>1.0572991452991449</v>
       </c>
       <c r="C146">
-        <v>0.05513658454834925</v>
+        <v>5.513658454834925E-2</v>
       </c>
       <c r="D146">
-        <v>0.950630768074987</v>
+        <v>0.95063076807498703</v>
       </c>
       <c r="E146">
-        <v>0.05829586371768373</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>5.8295863717683728E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3059,16 +3099,16 @@
         <v>1.06051282051282</v>
       </c>
       <c r="C147">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D147">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E147">
-        <v>0.05011976125098297</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>5.0119761250982969E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3076,50 +3116,50 @@
         <v>1.06051282051282</v>
       </c>
       <c r="C148">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D148">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E148">
-        <v>0.04176646770915247</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>4.1766467709152467E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.062119658119658</v>
+        <v>1.0621196581196579</v>
       </c>
       <c r="C149">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D149">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E149">
-        <v>0.04182975023598452</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>4.1829750235984522E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.062119658119658</v>
+        <v>1.0621196581196579</v>
       </c>
       <c r="C150">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D150">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E150">
-        <v>0.03346380018878763</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>3.3463800188787633E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3127,16 +3167,16 @@
         <v>1.063726495726496</v>
       </c>
       <c r="C151">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D151">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E151">
-        <v>0.02513581965768994</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>2.5135819657689941E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3144,16 +3184,16 @@
         <v>1.065333333333333</v>
       </c>
       <c r="C152">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D152">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E152">
-        <v>0.02517378917378917</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>2.5173789173789169E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3161,16 +3201,16 @@
         <v>1.065333333333333</v>
       </c>
       <c r="C153">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D153">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E153">
-        <v>0.01678252611585945</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>1.678252611585945E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3178,84 +3218,84 @@
         <v>1.065333333333333</v>
       </c>
       <c r="C154">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D154">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E154">
-        <v>0.01678252611585945</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>1.678252611585945E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.066940170940171</v>
+        <v>1.0669401709401709</v>
       </c>
       <c r="C155">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D155">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E155">
-        <v>0.01680783912659227</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>1.6807839126592269E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.066940170940171</v>
+        <v>1.0669401709401709</v>
       </c>
       <c r="C156">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D156">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E156">
-        <v>0.01680783912659227</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>1.6807839126592269E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.066940170940171</v>
+        <v>1.0669401709401709</v>
       </c>
       <c r="C157">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D157">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E157">
-        <v>0.008403919563296135</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>8.4039195632961347E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.066940170940171</v>
+        <v>1.0669401709401709</v>
       </c>
       <c r="C158">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D158">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E158">
-        <v>0.008403919563296135</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>8.4039195632961347E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3263,16 +3303,16 @@
         <v>1.068547008547009</v>
       </c>
       <c r="C159">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D159">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E159">
-        <v>0.008416576068662545</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>8.4165760686625447E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3280,16 +3320,16 @@
         <v>1.068547008547009</v>
       </c>
       <c r="C160">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D160">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E160">
-        <v>0.008416576068662545</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>8.4165760686625447E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3297,16 +3337,16 @@
         <v>1.068547008547009</v>
       </c>
       <c r="C161">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D161">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E161">
-        <v>0.008416576068662545</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>8.4165760686625447E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3314,16 +3354,16 @@
         <v>1.068547008547009</v>
       </c>
       <c r="C162">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D162">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E162">
-        <v>0.008416576068662545</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>8.4165760686625447E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3331,16 +3371,16 @@
         <v>1.070153846153846</v>
       </c>
       <c r="C163">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D163">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E163">
-        <v>0.008429232574028955</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>8.4292325740289546E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3357,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3374,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3391,12 +3431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3408,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3425,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3442,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3459,12 +3499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3476,12 +3516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3493,12 +3533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3510,12 +3550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3527,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3544,12 +3584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3561,12 +3601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3578,12 +3618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3595,12 +3635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3612,12 +3652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3629,12 +3669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3646,12 +3686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3663,12 +3703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3680,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3697,12 +3737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3714,12 +3754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3731,12 +3771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3748,12 +3788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3765,12 +3805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3782,12 +3822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3799,12 +3839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3816,12 +3856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3833,12 +3873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3850,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3867,12 +3907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3884,12 +3924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3901,12 +3941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3918,12 +3958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3935,12 +3975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3952,12 +3992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3969,12 +4009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3986,12 +4026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4003,12 +4043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4020,12 +4060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4037,12 +4077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4054,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4071,12 +4111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4088,12 +4128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4105,12 +4145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4122,12 +4162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4139,12 +4179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4156,12 +4196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4173,12 +4213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4190,12 +4230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4207,12 +4247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4224,12 +4264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4241,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4258,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4275,12 +4315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4292,12 +4332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4309,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4326,12 +4366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4343,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4360,12 +4400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4377,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4411,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4428,12 +4468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4445,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4462,12 +4502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4479,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4496,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4513,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4530,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4547,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4564,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4581,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4598,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4615,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4632,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4649,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4666,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4683,12 +4723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4700,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4717,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4734,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4751,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4768,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4785,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4802,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4819,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4836,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4853,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4870,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4887,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4904,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4921,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
